--- a/Library/Tables.xlsx
+++ b/Library/Tables.xlsx
@@ -6,16 +6,16 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Authors" sheetId="1" r:id="rId2"/>
-    <x:sheet name="Books" sheetId="2" r:id="rId3"/>
-    <x:sheet name="Genres" sheetId="3" r:id="rId4"/>
-    <x:sheet name="AuthorBooks" sheetId="4" r:id="rId5"/>
-    <x:sheet name="BookGenres" sheetId="5" r:id="rId6"/>
-    <x:sheet name="BookLendings" sheetId="6" r:id="rId7"/>
-    <x:sheet name="Employees" sheetId="7" r:id="rId8"/>
-    <x:sheet name="Instances" sheetId="8" r:id="rId9"/>
-    <x:sheet name="Libraries" sheetId="9" r:id="rId10"/>
-    <x:sheet name="Readers" sheetId="10" r:id="rId11"/>
+    <x:sheet name="Author" sheetId="1" r:id="rId2"/>
+    <x:sheet name="AuthorBook" sheetId="2" r:id="rId3"/>
+    <x:sheet name="Book" sheetId="3" r:id="rId4"/>
+    <x:sheet name="BookGenre" sheetId="4" r:id="rId5"/>
+    <x:sheet name="BookLending" sheetId="5" r:id="rId6"/>
+    <x:sheet name="Employee" sheetId="6" r:id="rId7"/>
+    <x:sheet name="Genre" sheetId="7" r:id="rId8"/>
+    <x:sheet name="Instance" sheetId="8" r:id="rId9"/>
+    <x:sheet name="LibraryModel" sheetId="9" r:id="rId10"/>
+    <x:sheet name="Reader" sheetId="10" r:id="rId11"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -55,6 +55,27 @@
     <x:t>Николаевич</x:t>
   </x:si>
   <x:si>
+    <x:t>BookId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AuthorId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Book</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Author</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Library.Domain.Models.Book</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Library.Domain.Models.Author</x:t>
+  </x:si>
+  <x:si>
     <x:t>Title</x:t>
   </x:si>
   <x:si>
@@ -64,57 +85,117 @@
     <x:t>Война и мир</x:t>
   </x:si>
   <x:si>
+    <x:t>GenreId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SequenceNumber</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Genre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Library.Domain.Models.Genre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReaderId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InstanceId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DateIssue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReturnPeriod</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DateReturn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reader</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Instance</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23.06.2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23.07.2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Library.Domain.Models.Reader</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Library.Domain.Models.Instance</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PasswordHash</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LibraryId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DateBirth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PhoneNumber</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RefreshToken</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExpireTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Role</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Library</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AQAAAAIAAYagAAAAEBNJI3dFvfHnP2kvYc5hYe9Q8SUda0jrLIxSRwCeUKxxuj+rOPsN/2gElJROGpopkw==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Арам</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Гущян</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30.06.2005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8-924-244-24-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user@example.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dqb/kzdhP6B5iL8oVYR9elTRmiHTeYZHIMyRBa25iTaxXgko+hnxgKwxviQULIBg5+S/1l51hydOTcgfN6Rh4A==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Admin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Library.Domain.Models.LibraryModel</x:t>
+  </x:si>
+  <x:si>
     <x:t>Поэзия</x:t>
   </x:si>
   <x:si>
     <x:t>Роман</x:t>
   </x:si>
   <x:si>
-    <x:t>BookId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AuthorId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GenreId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SequenceNumber</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReaderId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InstanceId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DateIssue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReturnPeriod</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DateReturn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23.06.2025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23.07.2025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LibraryId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Арам</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Гущян</x:t>
-  </x:si>
-  <x:si>
     <x:t>BookNumber</x:t>
   </x:si>
   <x:si>
@@ -130,13 +211,13 @@
     <x:t>House</x:t>
   </x:si>
   <x:si>
-    <x:t>PhoneNumber</x:t>
-  </x:si>
-  <x:si>
     <x:t>Юбилейная</x:t>
   </x:si>
   <x:si>
     <x:t>26-57-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8-914-249-24-24</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -182,13 +263,20 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -549,13 +637,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D2"/>
+  <x:dimension ref="A1:G2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:4">
+    <x:row r="1" spans="1:7">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -568,16 +656,34 @@
       <x:c r="D1" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
+      <x:c r="E1" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:7">
       <x:c r="A2" s="0">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>51</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -594,34 +700,64 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B3"/>
+  <x:dimension ref="A1:F3"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:2">
+    <x:row r="1" spans="1:6">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:2">
+      <x:c r="C1" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6">
       <x:c r="A2" s="0">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:2">
+      <x:c r="B2" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C2" s="0">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6">
       <x:c r="A3" s="0">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B3" s="0">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>12</x:v>
+      <x:c r="C3" s="0">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -649,23 +785,23 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="0">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="0">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -678,124 +814,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:D3"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:4">
-      <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="A2" s="0">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B2" s="0">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C2" s="0">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:4">
-      <x:c r="A3" s="0">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B3" s="0">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C3" s="0">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:D3"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:4">
-      <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="A2" s="0">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B2" s="0">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C2" s="0">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D2" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:4">
-      <x:c r="A3" s="0">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B3" s="0">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C3" s="0">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D3" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -811,59 +829,59 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C1" s="0" t="s">
+      <x:c r="D1" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D1" s="0" t="s">
+      <x:c r="E1" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
         <x:v>22</x:v>
-      </x:c>
-      <x:c r="E1" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F1" s="0" t="s">
-        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="0">
-        <x:v>13</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="0">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="0">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E2" s="0">
-        <x:v>30</x:v>
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D2" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="0">
-        <x:v>14</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="0">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="0">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E3" s="0">
-        <x:v>30</x:v>
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D3" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -875,46 +893,93 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E2"/>
+  <x:dimension ref="A1:H3"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:5">
+    <x:row r="1" spans="1:8">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E1" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:5">
+      <x:c r="F1" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8">
       <x:c r="A2" s="0">
-        <x:v>3</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B2" s="0">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>28</x:v>
+      <x:c r="C2" s="0">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E2" s="0">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8">
+      <x:c r="A3" s="0">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B3" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C3" s="0">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E3" s="0">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>34</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -926,32 +991,187 @@
 </x:worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:N2"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:14">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="L1" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="M1" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="N1" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:14">
+      <x:c r="A2" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D2" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="L2" s="1">
+        <x:v>45839.5364844444</x:v>
+      </x:c>
+      <x:c r="M2" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="N2" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B3"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:2">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" s="0">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D3"/>
+  <x:dimension ref="A1:F3"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:4">
+    <x:row r="1" spans="1:6">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6">
       <x:c r="A2" s="0">
         <x:v>12</x:v>
       </x:c>
@@ -962,10 +1182,16 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:4">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6">
       <x:c r="A3" s="0">
         <x:v>13</x:v>
       </x:c>
@@ -976,7 +1202,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1004,13 +1236,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -1018,13 +1250,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C2" s="0">
         <x:v>30</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
